--- a/5월/C# 프로그래밍_ 박다수.xlsx
+++ b/5월/C# 프로그래밍_ 박다수.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARK\Documents\GitHub\SamSungSHI_DT\5월\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDDA4D9-A26A-410D-9A28-209D6B22F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C# 프로그래밍" sheetId="2" r:id="rId1"/>
@@ -672,7 +673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1327,7 +1328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1415,9 +1416,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1547,6 +1545,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1570,72 +1634,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2126,6 +2124,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2161,6 +2176,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2336,121 +2368,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I242" sqref="I242"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
+    <row r="2" spans="1:20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="49" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="45">
+      <c r="H3" s="48"/>
+      <c r="I3" s="44">
         <v>45094</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="53" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
-    </row>
-    <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+    </row>
+    <row r="4" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="46" t="s">
+      <c r="H4" s="49"/>
+      <c r="I4" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="60"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>80</v>
       </c>
@@ -2466,39 +2498,39 @@
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>81</v>
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>116</v>
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>82</v>
       </c>
@@ -2510,96 +2542,96 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2617,21 +2649,21 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="C20" s="9"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="C21" s="9"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
@@ -2643,49 +2675,49 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>84</v>
       </c>
@@ -2699,7 +2731,7 @@
       <c r="N32" s="9"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -2713,7 +2745,7 @@
       <c r="N33" s="9"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>126</v>
       </c>
@@ -2737,7 +2769,7 @@
       <c r="O34" s="12"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2751,7 +2783,7 @@
       <c r="N35" s="9"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="13" t="s">
         <v>127</v>
       </c>
@@ -2771,7 +2803,7 @@
       <c r="O36" s="12"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -2785,7 +2817,7 @@
       <c r="N37" s="9"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" s="13" t="s">
         <v>128</v>
       </c>
@@ -2805,7 +2837,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2819,7 +2851,7 @@
       <c r="N39" s="9"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" s="13"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2837,25 +2869,25 @@
       <c r="O40" s="12"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>22</v>
       </c>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>95</v>
       </c>
@@ -2871,7 +2903,7 @@
       <c r="K45" s="12"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>18</v>
       </c>
@@ -2890,7 +2922,7 @@
       <c r="N46" s="9"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
@@ -2909,7 +2941,7 @@
       <c r="N47" s="9"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -2927,7 +2959,7 @@
       <c r="M48" s="9"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -2941,7 +2973,7 @@
       <c r="N49" s="9"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +2987,7 @@
       <c r="N50" s="9"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -2967,7 +2999,7 @@
       <c r="N51" s="9"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -2979,7 +3011,7 @@
       <c r="N52" s="9"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -2991,7 +3023,7 @@
       <c r="N53" s="9"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>85</v>
       </c>
@@ -3005,7 +3037,7 @@
       <c r="N54" s="9"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -3021,7 +3053,7 @@
       <c r="N55" s="9"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
@@ -3035,7 +3067,7 @@
       <c r="N56" s="9"/>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>26</v>
       </c>
@@ -3049,7 +3081,7 @@
       <c r="N57" s="9"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>27</v>
       </c>
@@ -3063,7 +3095,7 @@
       <c r="N58" s="9"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>28</v>
       </c>
@@ -3077,7 +3109,7 @@
       <c r="N59" s="9"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -3089,7 +3121,7 @@
       <c r="N60" s="9"/>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -3101,7 +3133,7 @@
       <c r="N61" s="9"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -3113,7 +3145,7 @@
       <c r="N62" s="9"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -3125,7 +3157,7 @@
       <c r="N63" s="9"/>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>120</v>
       </c>
@@ -3139,13 +3171,12 @@
       <c r="N64" s="9"/>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="11" t="s">
         <v>121</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="K65" s="29"/>
       <c r="L65" s="9"/>
       <c r="N65" t="s">
         <v>7</v>
@@ -3153,7 +3184,7 @@
       <c r="O65" s="12"/>
       <c r="P65" s="5"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>29</v>
       </c>
@@ -3167,7 +3198,7 @@
       <c r="N66" s="9"/>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>30</v>
       </c>
@@ -3181,7 +3212,7 @@
       <c r="N67" s="9"/>
       <c r="P67" s="5"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
@@ -3195,7 +3226,7 @@
       <c r="N68" s="9"/>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>32</v>
       </c>
@@ -3210,7 +3241,7 @@
       <c r="N69" s="9"/>
       <c r="P69" s="5"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
         <v>33</v>
       </c>
@@ -3224,7 +3255,7 @@
       <c r="N70" s="9"/>
       <c r="P70" s="5"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -3236,7 +3267,7 @@
       <c r="N71" s="9"/>
       <c r="P71" s="5"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -3248,7 +3279,7 @@
       <c r="N72" s="9"/>
       <c r="P72" s="5"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -3260,7 +3291,7 @@
       <c r="N73" s="9"/>
       <c r="P73" s="5"/>
     </row>
-    <row r="74" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="11" t="s">
         <v>86</v>
       </c>
@@ -3274,105 +3305,105 @@
       <c r="N74" s="9"/>
       <c r="P74" s="5"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="31"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="P75" s="5"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="35"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="34"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="P76" s="5"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="34"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="P77" s="5"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="35"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="34"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="P78" s="5"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="35"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="34"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="P79" s="5"/>
     </row>
-    <row r="80" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="4"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="38"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="37"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="P80" s="5"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -3384,7 +3415,7 @@
       <c r="N81" s="9"/>
       <c r="P81" s="5"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A82" s="13"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -3402,7 +3433,7 @@
       <c r="O82" s="12"/>
       <c r="P82" s="5"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A83" s="13"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -3420,7 +3451,7 @@
       <c r="O83" s="12"/>
       <c r="P83" s="5"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A84" s="13"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3438,7 +3469,7 @@
       <c r="O84" s="12"/>
       <c r="P84" s="5"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -3450,7 +3481,7 @@
       <c r="N85" s="9"/>
       <c r="P85" s="5"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -3462,7 +3493,7 @@
       <c r="N86" s="9"/>
       <c r="P86" s="5"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -3474,19 +3505,19 @@
       <c r="N87" s="9"/>
       <c r="P87" s="5"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="P88" s="5"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A89" s="11" t="s">
         <v>87</v>
       </c>
       <c r="P89" s="5"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A90" s="13"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -3504,7 +3535,7 @@
       <c r="O90" s="12"/>
       <c r="P90" s="5"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A91" s="13"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -3522,7 +3553,7 @@
       <c r="O91" s="12"/>
       <c r="P91" s="5"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A92" s="13"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -3540,7 +3571,7 @@
       <c r="O92" s="12"/>
       <c r="P92" s="5"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A93" s="13"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -3558,7 +3589,7 @@
       <c r="O93" s="12"/>
       <c r="P93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A94" s="13"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3576,7 +3607,7 @@
       <c r="O94" s="12"/>
       <c r="P94" s="5"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -3588,7 +3619,7 @@
       <c r="N95" s="9"/>
       <c r="P95" s="5"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -3600,7 +3631,7 @@
       <c r="N96" s="9"/>
       <c r="P96" s="5"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -3612,7 +3643,7 @@
       <c r="N97" s="9"/>
       <c r="P97" s="5"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98" s="11" t="s">
         <v>88</v>
       </c>
@@ -3626,7 +3657,7 @@
       <c r="N98" s="9"/>
       <c r="P98" s="5"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A99" s="13"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -3644,7 +3675,7 @@
       <c r="O99" s="12"/>
       <c r="P99" s="5"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A100" s="13"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -3662,7 +3693,7 @@
       <c r="O100" s="12"/>
       <c r="P100" s="5"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A101" s="13"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -3680,7 +3711,7 @@
       <c r="O101" s="12"/>
       <c r="P101" s="5"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A102" s="13"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -3698,7 +3729,7 @@
       <c r="O102" s="12"/>
       <c r="P102" s="5"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A103" s="13"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -3716,7 +3747,7 @@
       <c r="O103" s="12"/>
       <c r="P103" s="5"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A104" s="13"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3734,7 +3765,7 @@
       <c r="O104" s="12"/>
       <c r="P104" s="5"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A105" s="13"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -3752,7 +3783,7 @@
       <c r="O105" s="12"/>
       <c r="P105" s="5"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A106" s="13"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -3770,7 +3801,7 @@
       <c r="O106" s="12"/>
       <c r="P106" s="5"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A107" s="13"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -3788,7 +3819,7 @@
       <c r="O107" s="12"/>
       <c r="P107" s="5"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A108" s="13"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -3806,7 +3837,7 @@
       <c r="O108" s="12"/>
       <c r="P108" s="5"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A109" s="13"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -3824,7 +3855,7 @@
       <c r="O109" s="12"/>
       <c r="P109" s="5"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A110" s="13"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -3842,7 +3873,7 @@
       <c r="O110" s="12"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A111" s="13"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -3860,7 +3891,7 @@
       <c r="O111" s="12"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A112" s="13"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -3878,7 +3909,7 @@
       <c r="O112" s="12"/>
       <c r="P112" s="5"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A113" s="13"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3896,7 +3927,7 @@
       <c r="O113" s="12"/>
       <c r="P113" s="5"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A114" s="13"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3914,7 +3945,7 @@
       <c r="O114" s="12"/>
       <c r="P114" s="5"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A115" s="13"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3932,7 +3963,7 @@
       <c r="O115" s="12"/>
       <c r="P115" s="5"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A116" s="13"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3950,7 +3981,7 @@
       <c r="O116" s="12"/>
       <c r="P116" s="5"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A117" s="13"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -3968,7 +3999,7 @@
       <c r="O117" s="12"/>
       <c r="P117" s="5"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A118" s="13"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -3986,7 +4017,7 @@
       <c r="O118" s="12"/>
       <c r="P118" s="5"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A119" s="13"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4004,7 +4035,7 @@
       <c r="O119" s="12"/>
       <c r="P119" s="5"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A120" s="13"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4022,7 +4053,7 @@
       <c r="O120" s="12"/>
       <c r="P120" s="5"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A121" s="13"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4040,7 +4071,7 @@
       <c r="O121" s="12"/>
       <c r="P121" s="5"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A122" s="13"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -4058,31 +4089,31 @@
       <c r="O122" s="12"/>
       <c r="P122" s="5"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
       <c r="P123" s="5"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="P124" s="5"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
       <c r="P125" s="5"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A126" s="11" t="s">
         <v>44</v>
       </c>
       <c r="P126" s="5"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A127" s="11" t="s">
         <v>45</v>
       </c>
       <c r="P127" s="5"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A128" s="11" t="s">
         <v>89</v>
       </c>
@@ -4092,56 +4123,56 @@
       <c r="K128" s="12"/>
       <c r="P128" s="5"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A129" s="4" t="s">
         <v>42</v>
       </c>
       <c r="P129" s="5"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A130" s="4" t="s">
         <v>43</v>
       </c>
       <c r="P130" s="5"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A131" s="4" t="s">
         <v>41</v>
       </c>
       <c r="P131" s="5"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A132" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P132" s="5"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A133" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P133" s="5"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P134" s="5"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P135" s="5"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P136" s="5"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A137" s="16" t="s">
         <v>90</v>
       </c>
       <c r="P137" s="5"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A138" s="16"/>
       <c r="P138" s="5"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A139" s="16"/>
       <c r="B139" s="18" t="s">
         <v>60</v>
@@ -4151,39 +4182,39 @@
       </c>
       <c r="P139" s="5"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A140" s="16"/>
       <c r="P140" s="5"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A141" s="16"/>
       <c r="P141" s="5"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A142" s="16"/>
       <c r="P142" s="5"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A143" s="16"/>
       <c r="P143" s="5"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A144" s="16"/>
       <c r="P144" s="5"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A145" s="16"/>
       <c r="P145" s="5"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A146" s="16"/>
       <c r="P146" s="5"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A147" s="16"/>
       <c r="P147" s="5"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -4201,7 +4232,7 @@
       <c r="O148" s="12"/>
       <c r="P148" s="5"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -4219,7 +4250,7 @@
       <c r="O149" s="12"/>
       <c r="P149" s="5"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -4237,7 +4268,7 @@
       <c r="O150" s="12"/>
       <c r="P150" s="5"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -4255,7 +4286,7 @@
       <c r="O151" s="12"/>
       <c r="P151" s="5"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -4273,7 +4304,7 @@
       <c r="O152" s="12"/>
       <c r="P152" s="5"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -4291,7 +4322,7 @@
       <c r="O153" s="12"/>
       <c r="P153" s="5"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -4309,7 +4340,7 @@
       <c r="O154" s="12"/>
       <c r="P154" s="5"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -4327,25 +4358,25 @@
       <c r="O155" s="12"/>
       <c r="P155" s="5"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A156" s="16"/>
       <c r="P156" s="5"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A157" s="16"/>
       <c r="P157" s="5"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A158" s="16"/>
       <c r="P158" s="5"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A159" s="15" t="s">
         <v>91</v>
       </c>
       <c r="P159" s="5"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A160" s="4" t="s">
         <v>46</v>
       </c>
@@ -4355,63 +4386,63 @@
       <c r="N160" s="12"/>
       <c r="P160" s="5"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A161" s="4" t="s">
         <v>47</v>
       </c>
       <c r="P161" s="5"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A162" s="4" t="s">
         <v>48</v>
       </c>
       <c r="P162" s="5"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A163" s="4" t="s">
         <v>49</v>
       </c>
       <c r="P163" s="5"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A164" s="4" t="s">
         <v>50</v>
       </c>
       <c r="P164" s="5"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A165" s="15"/>
       <c r="P165" s="5"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A166" s="15"/>
       <c r="P166" s="5"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A167" s="15"/>
       <c r="P167" s="5"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A168" s="15"/>
       <c r="P168" s="5"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A169" s="15" t="s">
         <v>57</v>
       </c>
       <c r="P169" s="5"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A170" s="15" t="s">
         <v>92</v>
       </c>
       <c r="P170" s="5"/>
     </row>
-    <row r="171" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="15"/>
       <c r="P171" s="5"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A172" s="15"/>
       <c r="B172" s="17" t="s">
         <v>51</v>
@@ -4430,7 +4461,7 @@
       <c r="N172" s="3"/>
       <c r="P172" s="5"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A173" s="15"/>
       <c r="B173" s="4" t="s">
         <v>52</v>
@@ -4438,7 +4469,7 @@
       <c r="N173" s="5"/>
       <c r="P173" s="5"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A174" s="15"/>
       <c r="B174" s="4" t="s">
         <v>53</v>
@@ -4446,7 +4477,7 @@
       <c r="N174" s="5"/>
       <c r="P174" s="5"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A175" s="15"/>
       <c r="B175" s="4" t="s">
         <v>54</v>
@@ -4454,7 +4485,7 @@
       <c r="N175" s="5"/>
       <c r="P175" s="5"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A176" s="15"/>
       <c r="B176" s="4" t="s">
         <v>55</v>
@@ -4462,7 +4493,7 @@
       <c r="N176" s="5"/>
       <c r="P176" s="5"/>
     </row>
-    <row r="177" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="15"/>
       <c r="B177" s="6" t="s">
         <v>56</v>
@@ -4481,11 +4512,11 @@
       <c r="N177" s="8"/>
       <c r="P177" s="5"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" s="15"/>
       <c r="P178" s="5"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -4503,7 +4534,7 @@
       <c r="O179" s="12"/>
       <c r="P179" s="5"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -4521,7 +4552,7 @@
       <c r="O180" s="12"/>
       <c r="P180" s="5"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -4539,7 +4570,7 @@
       <c r="O181" s="12"/>
       <c r="P181" s="5"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -4557,7 +4588,7 @@
       <c r="O182" s="12"/>
       <c r="P182" s="5"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -4575,7 +4606,7 @@
       <c r="O183" s="12"/>
       <c r="P183" s="5"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -4593,7 +4624,7 @@
       <c r="O184" s="12"/>
       <c r="P184" s="5"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -4611,28 +4642,28 @@
       <c r="O185" s="12"/>
       <c r="P185" s="5"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P186" s="5"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P187" s="5"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P188" s="5"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" s="15" t="s">
         <v>58</v>
       </c>
       <c r="P189" s="5"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" s="15" t="s">
         <v>93</v>
       </c>
       <c r="P190" s="5"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -4650,7 +4681,7 @@
       <c r="O191" s="12"/>
       <c r="P191" s="5"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -4668,7 +4699,7 @@
       <c r="O192" s="12"/>
       <c r="P192" s="5"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -4686,7 +4717,7 @@
       <c r="O193" s="12"/>
       <c r="P193" s="5"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -4704,7 +4735,7 @@
       <c r="O194" s="12"/>
       <c r="P194" s="5"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -4722,7 +4753,7 @@
       <c r="O195" s="12"/>
       <c r="P195" s="5"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -4740,7 +4771,7 @@
       <c r="O196" s="12"/>
       <c r="P196" s="5"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -4758,7 +4789,7 @@
       <c r="O197" s="12"/>
       <c r="P197" s="5"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -4776,7 +4807,7 @@
       <c r="O198" s="12"/>
       <c r="P198" s="5"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -4794,7 +4825,7 @@
       <c r="O199" s="12"/>
       <c r="P199" s="5"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -4812,7 +4843,7 @@
       <c r="O200" s="12"/>
       <c r="P200" s="5"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -4830,7 +4861,7 @@
       <c r="O201" s="12"/>
       <c r="P201" s="5"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -4848,7 +4879,7 @@
       <c r="O202" s="12"/>
       <c r="P202" s="5"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -4866,7 +4897,7 @@
       <c r="O203" s="12"/>
       <c r="P203" s="5"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -4884,7 +4915,7 @@
       <c r="O204" s="12"/>
       <c r="P204" s="5"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -4902,7 +4933,7 @@
       <c r="O205" s="12"/>
       <c r="P205" s="5"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -4920,7 +4951,7 @@
       <c r="O206" s="12"/>
       <c r="P206" s="5"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -4938,7 +4969,7 @@
       <c r="O207" s="12"/>
       <c r="P207" s="5"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -4956,7 +4987,7 @@
       <c r="O208" s="12"/>
       <c r="P208" s="5"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -4974,7 +5005,7 @@
       <c r="O209" s="12"/>
       <c r="P209" s="5"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -4992,7 +5023,7 @@
       <c r="O210" s="12"/>
       <c r="P210" s="5"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -5010,7 +5041,7 @@
       <c r="O211" s="12"/>
       <c r="P211" s="5"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -5028,7 +5059,7 @@
       <c r="O212" s="12"/>
       <c r="P212" s="5"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -5046,7 +5077,7 @@
       <c r="O213" s="12"/>
       <c r="P213" s="5"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -5064,7 +5095,7 @@
       <c r="O214" s="12"/>
       <c r="P214" s="5"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -5082,7 +5113,7 @@
       <c r="O215" s="12"/>
       <c r="P215" s="5"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -5100,7 +5131,7 @@
       <c r="O216" s="12"/>
       <c r="P216" s="5"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -5118,7 +5149,7 @@
       <c r="O217" s="12"/>
       <c r="P217" s="5"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -5136,15 +5167,15 @@
       <c r="O218" s="12"/>
       <c r="P218" s="5"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A219" s="15"/>
       <c r="P219" s="5"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A220" s="15"/>
       <c r="P220" s="5"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A222" s="15" t="s">
         <v>94</v>
       </c>
@@ -5153,45 +5184,45 @@
       </c>
       <c r="P222" s="5"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A223" s="4" t="s">
         <v>62</v>
       </c>
       <c r="P223" s="5"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A224" s="4" t="s">
         <v>63</v>
       </c>
       <c r="P224" s="5"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A225" s="4" t="s">
         <v>64</v>
       </c>
       <c r="P225" s="5"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A226" s="4" t="s">
         <v>65</v>
       </c>
       <c r="P226" s="5"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A227" s="4" t="s">
         <v>119</v>
       </c>
       <c r="P227" s="5"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
       <c r="P228" s="5"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
       <c r="P229" s="5"/>
     </row>
-    <row r="230" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -5235,327 +5266,327 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41"/>
-    </row>
-    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="63"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="69"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="69"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="69"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="69"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="69"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="69"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="69"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="69"/>
-    </row>
-    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="72"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="65"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="68"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="68"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="71"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="P17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -5572,411 +5603,411 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="69"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="69"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="69"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="69"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="69"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="69"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="69"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="69"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="69"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="69"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="69"/>
-    </row>
-    <row r="22" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="68"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="68"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="68"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="68"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="68"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="68"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="68"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="68"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="68"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="68"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="71"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="15"/>
       <c r="N23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -5993,59 +6024,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="9" width="36.875" customWidth="1"/>
+    <col min="1" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="9" width="36.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="80"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="23" t="s">
         <v>105</v>
       </c>
@@ -6063,156 +6094,156 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="94" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
-    </row>
-    <row r="6" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-    </row>
-    <row r="7" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="99"/>
-    </row>
-    <row r="8" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
-    </row>
-    <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="99"/>
-    </row>
-    <row r="10" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-    </row>
-    <row r="11" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-    </row>
-    <row r="12" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="13" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-    </row>
-    <row r="14" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-    </row>
-    <row r="15" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="91"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
-    </row>
-    <row r="17" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+    </row>
+    <row r="6" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
+    </row>
+    <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+    </row>
+    <row r="10" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90"/>
+    </row>
+    <row r="11" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+    </row>
+    <row r="12" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+    </row>
+    <row r="13" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="16" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
         <v>78</v>
       </c>
@@ -6227,7 +6258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
         <v>113</v>
       </c>
@@ -6240,7 +6271,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
         <v>114</v>
       </c>
@@ -6253,7 +6284,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A20" s="27" t="s">
         <v>115</v>
       </c>
@@ -6266,7 +6297,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.4">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -6277,10 +6308,10 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A22" s="28"/>
     </row>
-    <row r="23" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
       <c r="A23" s="28"/>
     </row>
   </sheetData>

--- a/5월/C# 프로그래밍_ 박다수.xlsx
+++ b/5월/C# 프로그래밍_ 박다수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARK\Documents\GitHub\SamSungSHI_DT\5월\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDDA4D9-A26A-410D-9A28-209D6B22F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A26ED5-22E1-48C9-A769-05D93C580E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="186">
   <si>
     <t xml:space="preserve">강의 일자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,7 +666,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>답:</t>
+    <t>널 병합 연산자, ivalue 가 null이면 int iResult에 0을 대입하고, ivalue가 null이 아니면, ivalue의 값을 그대로 iResult에 대입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int iValue = 10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string sValue = iValue % 2 == 0 ? " 짝수 입니다.":"홀수 입니다.";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageBox.Show(sValue);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref 방식 : 이미 초기화된 변수를 전달하여, 메서드에 의해 값이 변경될 수 있게 합니다.  인수가 메서드에 전달되기 전에 반드시 초기화 되어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out방식 : 인수가 초기화되지 않아도 되며, 메서드가 반환되기 전에 out 인자에 값이 할당되어야 합니다. 초기화 되지 않은 변수를 전달하여 메서드에 의해 값이 할당되게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식 기준 코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public TryParse()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            InitializeComponent();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        private void btn_TryParse_Click(object sender, EventArgs e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            StringToIntParser parser = new StringToIntParser();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            string userInput = "555";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            int number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (parser.TryParse(userInput, out number))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               MessageBox.Show($"변환된 정수: {number}");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               MessageBox.Show("입력한 문자열을 정수로 변환할 수 없습니다.");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public class StringToIntParser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public bool TryParse(string input, out int result)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            result = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            foreach (char c in input)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (!char.IsDigit(c))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    return false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            result = Int32.Parse(input);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return true;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public partial class TryParse : Form</t>
+  </si>
+  <si>
+    <t>답:1,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1534903170 + 2136311903 = 원래의 합: 3671215073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 자료형은 32비트로서, 범위는 -2,147,483,648 ~ 2,147,483,647</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1534903170: 0101 1100 0110 1100 1010 1001 0101 0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2136311903: 0111 1111 1101 0110 0101 1101 1100 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">두 수를 2진수로 변환후 덧셈 하면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ2진수덧셈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                  1101 1011 1011 1100 0001 0010 1001 0001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진수 결과가 1로 시작하는 것을 봐서, int 범위를 초과한 것을 알 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ2의 보수를 구하기 위해 위의 덧셈값에 1의 보수를 구하고 1을 더함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     1의 보수: 0010 0100 0100 0011 1110 1101 0110 1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     1을 더함: 0010 0100 0100 0011 1110 1101 0110 1111   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최종적으로 1의보수에 1을 더한 값을 이진수를 다시 10진수로 변환하면 결과는 -623752223. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 2의 보수법 알고리즘을 사용하여 결과가 -623752223임을 증명하였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyDic.Add("십",10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyDic.Add("이십",20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;string, int&gt; MyDic2 = new Dictionary&lt;string, int&gt;(MyDic);  // 깊은 복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MyDic2["십"] = 100;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageBox.Show($"MyDic 의 \"십\" 의 데이터는 : {MyDic["십"]} 입니다.");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;string, int&gt; MyDic = new Dictionary&lt;string, int&gt;();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2049,9 +2244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2089,9 +2284,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2124,26 +2319,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2176,26 +2354,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2371,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView showGridLines="0" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2852,7 +3013,9 @@
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A40" s="13"/>
+      <c r="A40" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2874,7 +3037,6 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A42" s="11"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
@@ -2900,7 +3062,9 @@
       <c r="J45" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="12"/>
+      <c r="K45" s="12">
+        <v>4</v>
+      </c>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
@@ -3047,7 +3211,9 @@
       <c r="J55" t="s">
         <v>7</v>
       </c>
-      <c r="K55" s="12"/>
+      <c r="K55" s="12">
+        <v>2</v>
+      </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -3181,7 +3347,9 @@
       <c r="N65" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="12"/>
+      <c r="O65" s="12">
+        <v>1</v>
+      </c>
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.4">
@@ -3416,7 +3584,9 @@
       <c r="P81" s="5"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A82" s="13"/>
+      <c r="A82" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -3434,7 +3604,9 @@
       <c r="P82" s="5"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A83" s="13"/>
+      <c r="A83" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -3452,7 +3624,9 @@
       <c r="P83" s="5"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A84" s="13"/>
+      <c r="A84" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -3518,7 +3692,9 @@
       <c r="P89" s="5"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A90" s="13"/>
+      <c r="A90" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -3536,7 +3712,9 @@
       <c r="P90" s="5"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A91" s="13"/>
+      <c r="A91" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -3554,7 +3732,9 @@
       <c r="P91" s="5"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A92" s="13"/>
+      <c r="A92" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -3658,14 +3838,18 @@
       <c r="P98" s="5"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A99" s="13"/>
+      <c r="A99" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
+      <c r="H99" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
       <c r="K99" s="12"/>
@@ -3676,14 +3860,18 @@
       <c r="P99" s="5"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A100" s="13"/>
+      <c r="A100" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
+      <c r="H100" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
@@ -3694,14 +3882,18 @@
       <c r="P100" s="5"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A101" s="13"/>
+      <c r="A101" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
+      <c r="H101" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
@@ -3712,14 +3904,18 @@
       <c r="P101" s="5"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A102" s="13"/>
+      <c r="A102" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
+      <c r="H102" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
@@ -3730,14 +3926,18 @@
       <c r="P102" s="5"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A103" s="13"/>
+      <c r="A103" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
+      <c r="H103" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
@@ -3748,14 +3948,18 @@
       <c r="P103" s="5"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A104" s="13"/>
+      <c r="A104" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
+      <c r="H104" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
@@ -3766,14 +3970,18 @@
       <c r="P104" s="5"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A105" s="13"/>
+      <c r="A105" s="13" t="s">
+        <v>141</v>
+      </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
+      <c r="H105" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
@@ -3784,14 +3992,18 @@
       <c r="P105" s="5"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A106" s="13"/>
+      <c r="A106" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
+      <c r="H106" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
@@ -3809,7 +4021,9 @@
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
+      <c r="H107" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
@@ -3820,14 +4034,18 @@
       <c r="P107" s="5"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A108" s="13"/>
+      <c r="A108" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
+      <c r="H108" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
@@ -3838,14 +4056,18 @@
       <c r="P108" s="5"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A109" s="13"/>
+      <c r="A109" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
+      <c r="H109" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
@@ -3856,14 +4078,18 @@
       <c r="P109" s="5"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A110" s="13"/>
+      <c r="A110" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
+      <c r="H110" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
@@ -3874,7 +4100,9 @@
       <c r="P110" s="5"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A111" s="13"/>
+      <c r="A111" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
@@ -3892,14 +4120,18 @@
       <c r="P111" s="5"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A112" s="13"/>
+      <c r="A112" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
+      <c r="H112" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
@@ -3917,7 +4149,9 @@
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
+      <c r="H113" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="I113" s="12"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
@@ -3928,14 +4162,18 @@
       <c r="P113" s="5"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A114" s="13"/>
+      <c r="A114" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
+      <c r="H114" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="I114" s="12"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
@@ -3946,14 +4184,18 @@
       <c r="P114" s="5"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A115" s="13"/>
+      <c r="A115" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
+      <c r="H115" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
@@ -3964,7 +4206,9 @@
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A116" s="13"/>
+      <c r="A116" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
@@ -3982,14 +4226,18 @@
       <c r="P116" s="5"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A117" s="13"/>
+      <c r="A117" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
+      <c r="H117" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
@@ -4000,7 +4248,9 @@
       <c r="P117" s="5"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A118" s="13"/>
+      <c r="A118" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -4018,7 +4268,9 @@
       <c r="P118" s="5"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A119" s="13"/>
+      <c r="A119" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -4036,7 +4288,9 @@
       <c r="P119" s="5"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A120" s="13"/>
+      <c r="A120" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
@@ -4054,7 +4308,9 @@
       <c r="P120" s="5"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A121" s="13"/>
+      <c r="A121" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
@@ -4072,7 +4328,9 @@
       <c r="P121" s="5"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A122" s="13"/>
+      <c r="A122" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
@@ -4090,7 +4348,9 @@
       <c r="P122" s="5"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A123" s="4"/>
+      <c r="A123" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="P123" s="5"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.4">
@@ -4120,7 +4380,9 @@
       <c r="J128" t="s">
         <v>7</v>
       </c>
-      <c r="K128" s="12"/>
+      <c r="K128" s="12">
+        <v>4</v>
+      </c>
       <c r="P128" s="5"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.4">
@@ -4383,7 +4645,9 @@
       <c r="M160" t="s">
         <v>7</v>
       </c>
-      <c r="N160" s="12"/>
+      <c r="N160" s="12">
+        <v>4</v>
+      </c>
       <c r="P160" s="5"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.4">
@@ -4517,7 +4781,9 @@
       <c r="P178" s="5"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A179" s="12"/>
+      <c r="A179" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
@@ -4535,7 +4801,9 @@
       <c r="P179" s="5"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A180" s="12"/>
+      <c r="A180" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
@@ -4553,7 +4821,9 @@
       <c r="P180" s="5"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A181" s="12"/>
+      <c r="A181" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
@@ -4589,7 +4859,9 @@
       <c r="P182" s="5"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A183" s="12"/>
+      <c r="A183" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
@@ -4607,7 +4879,9 @@
       <c r="P183" s="5"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A184" s="12"/>
+      <c r="A184" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
       <c r="D184" s="12"/>
@@ -4625,7 +4899,9 @@
       <c r="P184" s="5"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A185" s="12"/>
+      <c r="A185" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
       <c r="D185" s="12"/>
@@ -4643,9 +4919,39 @@
       <c r="P185" s="5"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
       <c r="P186" s="5"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
       <c r="P187" s="5"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.4">
@@ -4682,7 +4988,9 @@
       <c r="P191" s="5"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A192" s="12"/>
+      <c r="A192" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
@@ -4700,7 +5008,9 @@
       <c r="P192" s="5"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A193" s="12"/>
+      <c r="A193" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
@@ -4736,7 +5046,9 @@
       <c r="P194" s="5"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A195" s="12"/>
+      <c r="A195" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
@@ -4754,7 +5066,9 @@
       <c r="P195" s="5"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A196" s="12"/>
+      <c r="A196" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
       <c r="D196" s="12"/>
@@ -4772,7 +5086,9 @@
       <c r="P196" s="5"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A197" s="12"/>
+      <c r="A197" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
@@ -4790,7 +5106,9 @@
       <c r="P197" s="5"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A198" s="12"/>
+      <c r="A198" s="12" t="s">
+        <v>172</v>
+      </c>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
       <c r="D198" s="12"/>
@@ -4808,12 +5126,16 @@
       <c r="P198" s="5"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A199" s="12"/>
+      <c r="A199" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
+      <c r="F199" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
@@ -4826,7 +5148,9 @@
       <c r="P199" s="5"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A200" s="12"/>
+      <c r="A200" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
       <c r="D200" s="12"/>
@@ -4844,7 +5168,9 @@
       <c r="P200" s="5"/>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A201" s="12"/>
+      <c r="A201" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
       <c r="D201" s="12"/>
@@ -4862,7 +5188,9 @@
       <c r="P201" s="5"/>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A202" s="12"/>
+      <c r="A202" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
       <c r="D202" s="12"/>
@@ -4898,7 +5226,9 @@
       <c r="P203" s="5"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A204" s="12"/>
+      <c r="A204" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
       <c r="D204" s="12"/>
@@ -4916,7 +5246,9 @@
       <c r="P204" s="5"/>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A205" s="12"/>
+      <c r="A205" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
       <c r="D205" s="12"/>
@@ -5180,7 +5512,7 @@
         <v>94</v>
       </c>
       <c r="G222" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="P222" s="5"/>
     </row>
@@ -5606,7 +5938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:N22"/>
     </sheetView>
   </sheetViews>
@@ -6027,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6271,7 +6603,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
         <v>114</v>
       </c>

--- a/5월/C# 프로그래밍_ 박다수.xlsx
+++ b/5월/C# 프로그래밍_ 박다수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARK\Documents\GitHub\SamSungSHI_DT\5월\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A26ED5-22E1-48C9-A769-05D93C580E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F33778-7311-4D61-B294-8C78863AF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2532,7 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A135" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A188" workbookViewId="0">
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -6359,7 +6359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:I16"/>
     </sheetView>
   </sheetViews>

--- a/5월/C# 프로그래밍_ 박다수.xlsx
+++ b/5월/C# 프로그래밍_ 박다수.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARK\Documents\GitHub\SamSungSHI_DT\5월\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\DT교육\SamSungSHI_DT\5월\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F33778-7311-4D61-B294-8C78863AF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C# 프로그래밍" sheetId="2" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="198">
   <si>
     <t xml:space="preserve">강의 일자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,10 +784,6 @@
     <t xml:space="preserve"> public partial class TryParse : Form</t>
   </si>
   <si>
-    <t>답:1,2,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1534903170 + 2136311903 = 원래의 합: 3671215073</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -862,13 +857,54 @@
   </si>
   <si>
     <t>Dictionary&lt;string, int&gt; MyDic = new Dictionary&lt;string, int&gt;();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace MyFirstCSharp</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public partial class TestGeneric : Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public TestGeneric()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            string result = $"{gen1.ToString()}_{gen2.ToString()}_{gen3.ToString()}";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MessageBox.Show(result);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        private void btn_Generic_one_Click(object sender, EventArgs e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           TestGenericMethod&lt;int, string&gt;(300, 150, "합은 450");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TestGenericMethod&lt;string, double&gt;("일반화 메서드", "표현값은", 500);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public static void TestGenericMethod&lt;T,R&gt;(T gen1, T gen2, R gen3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  private void btn_Generic_two_Click(object sender, EventArgs e)</t>
+  </si>
+  <si>
+    <t>답: 1,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박다수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2244,9 +2280,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2284,9 +2320,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2321,7 +2357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2356,7 +2392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2529,21 +2565,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>66</v>
       </c>
@@ -2567,7 +2603,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2589,7 +2625,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
@@ -2614,10 +2650,12 @@
         <v>5</v>
       </c>
       <c r="N3" s="53"/>
-      <c r="O3" s="56"/>
+      <c r="O3" s="56" t="s">
+        <v>197</v>
+      </c>
       <c r="P3" s="57"/>
     </row>
-    <row r="4" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
@@ -2643,7 +2681,7 @@
       <c r="O4" s="58"/>
       <c r="P4" s="59"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>80</v>
       </c>
@@ -2659,39 +2697,39 @@
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>81</v>
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>116</v>
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>82</v>
       </c>
@@ -2703,7 +2741,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="10"/>
       <c r="C13" s="29" t="s">
@@ -2720,7 +2758,7 @@
       <c r="L13" s="9"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="32"/>
@@ -2735,7 +2773,7 @@
       <c r="L14" s="9"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="9"/>
       <c r="C15" s="32"/>
@@ -2750,7 +2788,7 @@
       <c r="L15" s="9"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
       <c r="C16" s="32"/>
@@ -2765,7 +2803,7 @@
       <c r="L16" s="9"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="32"/>
@@ -2780,7 +2818,7 @@
       <c r="L17" s="9"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
@@ -2792,7 +2830,7 @@
       <c r="J18" s="37"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2810,21 +2848,21 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" s="9"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" s="9"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
@@ -2836,49 +2874,49 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>84</v>
       </c>
@@ -2892,7 +2930,7 @@
       <c r="N32" s="9"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -2906,7 +2944,7 @@
       <c r="N33" s="9"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>126</v>
       </c>
@@ -2930,7 +2968,7 @@
       <c r="O34" s="12"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2944,7 +2982,7 @@
       <c r="N35" s="9"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>127</v>
       </c>
@@ -2964,7 +3002,7 @@
       <c r="O36" s="12"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -2978,7 +3016,7 @@
       <c r="N37" s="9"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>128</v>
       </c>
@@ -2998,7 +3036,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -3012,7 +3050,7 @@
       <c r="N39" s="9"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>129</v>
       </c>
@@ -3032,24 +3070,24 @@
       <c r="O40" s="12"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>22</v>
       </c>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>95</v>
       </c>
@@ -3067,7 +3105,7 @@
       </c>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>18</v>
       </c>
@@ -3086,7 +3124,7 @@
       <c r="N46" s="9"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3143,7 @@
       <c r="N47" s="9"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
@@ -3123,7 +3161,7 @@
       <c r="M48" s="9"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -3137,7 +3175,7 @@
       <c r="N49" s="9"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>19</v>
       </c>
@@ -3151,7 +3189,7 @@
       <c r="N50" s="9"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -3163,7 +3201,7 @@
       <c r="N51" s="9"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -3175,7 +3213,7 @@
       <c r="N52" s="9"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -3187,7 +3225,7 @@
       <c r="N53" s="9"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>85</v>
       </c>
@@ -3201,7 +3239,7 @@
       <c r="N54" s="9"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -3219,7 +3257,7 @@
       <c r="N55" s="9"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>25</v>
       </c>
@@ -3233,7 +3271,7 @@
       <c r="N56" s="9"/>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>26</v>
       </c>
@@ -3247,7 +3285,7 @@
       <c r="N57" s="9"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>27</v>
       </c>
@@ -3261,7 +3299,7 @@
       <c r="N58" s="9"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>28</v>
       </c>
@@ -3275,7 +3313,7 @@
       <c r="N59" s="9"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -3287,7 +3325,7 @@
       <c r="N60" s="9"/>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -3299,7 +3337,7 @@
       <c r="N61" s="9"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -3311,7 +3349,7 @@
       <c r="N62" s="9"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -3323,7 +3361,7 @@
       <c r="N63" s="9"/>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>120</v>
       </c>
@@ -3337,7 +3375,7 @@
       <c r="N64" s="9"/>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>121</v>
       </c>
@@ -3352,7 +3390,7 @@
       </c>
       <c r="P65" s="5"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>29</v>
       </c>
@@ -3366,7 +3404,7 @@
       <c r="N66" s="9"/>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>30</v>
       </c>
@@ -3380,7 +3418,7 @@
       <c r="N67" s="9"/>
       <c r="P67" s="5"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
@@ -3394,7 +3432,7 @@
       <c r="N68" s="9"/>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>32</v>
       </c>
@@ -3409,7 +3447,7 @@
       <c r="N69" s="9"/>
       <c r="P69" s="5"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>33</v>
       </c>
@@ -3423,7 +3461,7 @@
       <c r="N70" s="9"/>
       <c r="P70" s="5"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -3435,7 +3473,7 @@
       <c r="N71" s="9"/>
       <c r="P71" s="5"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -3447,7 +3485,7 @@
       <c r="N72" s="9"/>
       <c r="P72" s="5"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -3459,7 +3497,7 @@
       <c r="N73" s="9"/>
       <c r="P73" s="5"/>
     </row>
-    <row r="74" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>86</v>
       </c>
@@ -3473,7 +3511,7 @@
       <c r="N74" s="9"/>
       <c r="P74" s="5"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="C75" s="29" t="s">
         <v>23</v>
@@ -3491,7 +3529,7 @@
       <c r="N75" s="9"/>
       <c r="P75" s="5"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="C76" s="32"/>
       <c r="D76" s="33"/>
@@ -3507,7 +3545,7 @@
       <c r="N76" s="9"/>
       <c r="P76" s="5"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="C77" s="32"/>
       <c r="D77" s="33"/>
@@ -3523,7 +3561,7 @@
       <c r="N77" s="9"/>
       <c r="P77" s="5"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="C78" s="32"/>
       <c r="D78" s="33"/>
@@ -3539,7 +3577,7 @@
       <c r="N78" s="9"/>
       <c r="P78" s="5"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="C79" s="32"/>
       <c r="D79" s="33"/>
@@ -3555,7 +3593,7 @@
       <c r="N79" s="9"/>
       <c r="P79" s="5"/>
     </row>
-    <row r="80" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="C80" s="35"/>
       <c r="D80" s="36"/>
@@ -3571,7 +3609,7 @@
       <c r="N80" s="9"/>
       <c r="P80" s="5"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -3583,7 +3621,7 @@
       <c r="N81" s="9"/>
       <c r="P81" s="5"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>130</v>
       </c>
@@ -3603,7 +3641,7 @@
       <c r="O82" s="12"/>
       <c r="P82" s="5"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>131</v>
       </c>
@@ -3623,7 +3661,7 @@
       <c r="O83" s="12"/>
       <c r="P83" s="5"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>132</v>
       </c>
@@ -3643,7 +3681,7 @@
       <c r="O84" s="12"/>
       <c r="P84" s="5"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -3655,7 +3693,7 @@
       <c r="N85" s="9"/>
       <c r="P85" s="5"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -3667,7 +3705,7 @@
       <c r="N86" s="9"/>
       <c r="P86" s="5"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -3679,19 +3717,19 @@
       <c r="N87" s="9"/>
       <c r="P87" s="5"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>38</v>
       </c>
       <c r="P88" s="5"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>87</v>
       </c>
       <c r="P89" s="5"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>133</v>
       </c>
@@ -3711,7 +3749,7 @@
       <c r="O90" s="12"/>
       <c r="P90" s="5"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>134</v>
       </c>
@@ -3731,7 +3769,7 @@
       <c r="O91" s="12"/>
       <c r="P91" s="5"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>135</v>
       </c>
@@ -3751,7 +3789,7 @@
       <c r="O92" s="12"/>
       <c r="P92" s="5"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -3769,7 +3807,7 @@
       <c r="O93" s="12"/>
       <c r="P93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3787,7 +3825,7 @@
       <c r="O94" s="12"/>
       <c r="P94" s="5"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -3799,7 +3837,7 @@
       <c r="N95" s="9"/>
       <c r="P95" s="5"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -3811,7 +3849,7 @@
       <c r="N96" s="9"/>
       <c r="P96" s="5"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -3823,7 +3861,7 @@
       <c r="N97" s="9"/>
       <c r="P97" s="5"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>88</v>
       </c>
@@ -3837,7 +3875,7 @@
       <c r="N98" s="9"/>
       <c r="P98" s="5"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>136</v>
       </c>
@@ -3859,7 +3897,7 @@
       <c r="O99" s="12"/>
       <c r="P99" s="5"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>165</v>
       </c>
@@ -3881,7 +3919,7 @@
       <c r="O100" s="12"/>
       <c r="P100" s="5"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>137</v>
       </c>
@@ -3903,7 +3941,7 @@
       <c r="O101" s="12"/>
       <c r="P101" s="5"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>138</v>
       </c>
@@ -3925,7 +3963,7 @@
       <c r="O102" s="12"/>
       <c r="P102" s="5"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>139</v>
       </c>
@@ -3947,7 +3985,7 @@
       <c r="O103" s="12"/>
       <c r="P103" s="5"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>140</v>
       </c>
@@ -3969,7 +4007,7 @@
       <c r="O104" s="12"/>
       <c r="P104" s="5"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>141</v>
       </c>
@@ -3991,7 +4029,7 @@
       <c r="O105" s="12"/>
       <c r="P105" s="5"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>142</v>
       </c>
@@ -4013,7 +4051,7 @@
       <c r="O106" s="12"/>
       <c r="P106" s="5"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4033,7 +4071,7 @@
       <c r="O107" s="12"/>
       <c r="P107" s="5"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>143</v>
       </c>
@@ -4055,7 +4093,7 @@
       <c r="O108" s="12"/>
       <c r="P108" s="5"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>139</v>
       </c>
@@ -4077,7 +4115,7 @@
       <c r="O109" s="12"/>
       <c r="P109" s="5"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>144</v>
       </c>
@@ -4099,7 +4137,7 @@
       <c r="O110" s="12"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>145</v>
       </c>
@@ -4119,7 +4157,7 @@
       <c r="O111" s="12"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>146</v>
       </c>
@@ -4141,7 +4179,7 @@
       <c r="O112" s="12"/>
       <c r="P112" s="5"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4161,7 +4199,7 @@
       <c r="O113" s="12"/>
       <c r="P113" s="5"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>147</v>
       </c>
@@ -4183,7 +4221,7 @@
       <c r="O114" s="12"/>
       <c r="P114" s="5"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>148</v>
       </c>
@@ -4205,7 +4243,7 @@
       <c r="O115" s="12"/>
       <c r="P115" s="5"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>149</v>
       </c>
@@ -4225,7 +4263,7 @@
       <c r="O116" s="12"/>
       <c r="P116" s="5"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>150</v>
       </c>
@@ -4247,7 +4285,7 @@
       <c r="O117" s="12"/>
       <c r="P117" s="5"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>151</v>
       </c>
@@ -4267,7 +4305,7 @@
       <c r="O118" s="12"/>
       <c r="P118" s="5"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>148</v>
       </c>
@@ -4287,7 +4325,7 @@
       <c r="O119" s="12"/>
       <c r="P119" s="5"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>152</v>
       </c>
@@ -4307,7 +4345,7 @@
       <c r="O120" s="12"/>
       <c r="P120" s="5"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>150</v>
       </c>
@@ -4327,7 +4365,7 @@
       <c r="O121" s="12"/>
       <c r="P121" s="5"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>142</v>
       </c>
@@ -4347,33 +4385,33 @@
       <c r="O122" s="12"/>
       <c r="P122" s="5"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>153</v>
       </c>
       <c r="P123" s="5"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="P124" s="5"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="P125" s="5"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>44</v>
       </c>
       <c r="P126" s="5"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>45</v>
       </c>
       <c r="P127" s="5"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>89</v>
       </c>
@@ -4385,56 +4423,56 @@
       </c>
       <c r="P128" s="5"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>42</v>
       </c>
       <c r="P129" s="5"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>43</v>
       </c>
       <c r="P130" s="5"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>41</v>
       </c>
       <c r="P131" s="5"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P132" s="5"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P133" s="5"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P134" s="5"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P135" s="5"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P136" s="5"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="16" t="s">
         <v>90</v>
       </c>
       <c r="P137" s="5"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="16"/>
       <c r="P138" s="5"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="16"/>
       <c r="B139" s="18" t="s">
         <v>60</v>
@@ -4444,44 +4482,48 @@
       </c>
       <c r="P139" s="5"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="16"/>
       <c r="P140" s="5"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="16"/>
       <c r="P141" s="5"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="16"/>
       <c r="P142" s="5"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="16"/>
       <c r="P143" s="5"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="16"/>
       <c r="P144" s="5"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="16"/>
       <c r="P145" s="5"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="16"/>
       <c r="P146" s="5"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="16"/>
       <c r="P147" s="5"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A148" s="12"/>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
+      <c r="E148" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -4489,17 +4531,23 @@
       <c r="J148" s="12"/>
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
+      <c r="M148" s="12" t="s">
+        <v>195</v>
+      </c>
       <c r="N148" s="12"/>
       <c r="O148" s="12"/>
       <c r="P148" s="5"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A149" s="12"/>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" s="12" t="s">
+        <v>186</v>
+      </c>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
+      <c r="E149" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
@@ -4507,17 +4555,23 @@
       <c r="J149" s="12"/>
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
+      <c r="M149" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="N149" s="12"/>
       <c r="O149" s="12"/>
       <c r="P149" s="5"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A150" s="12"/>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="E150" s="12" t="s">
+        <v>189</v>
+      </c>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
@@ -4525,17 +4579,23 @@
       <c r="J150" s="12"/>
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
-      <c r="M150" s="12"/>
+      <c r="M150" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="N150" s="12"/>
       <c r="O150" s="12"/>
       <c r="P150" s="5"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A151" s="12"/>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="E151" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
@@ -4543,17 +4603,23 @@
       <c r="J151" s="12"/>
       <c r="K151" s="12"/>
       <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
+      <c r="M151" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="N151" s="12"/>
       <c r="O151" s="12"/>
       <c r="P151" s="5"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A152" s="12"/>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="E152" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -4561,13 +4627,17 @@
       <c r="J152" s="12"/>
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
+      <c r="M152" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="N152" s="12"/>
       <c r="O152" s="12"/>
       <c r="P152" s="5"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A153" s="12"/>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
@@ -4579,17 +4649,23 @@
       <c r="J153" s="12"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
+      <c r="M153" s="12" t="s">
+        <v>164</v>
+      </c>
       <c r="N153" s="12"/>
       <c r="O153" s="12"/>
       <c r="P153" s="5"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A154" s="12"/>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
+      <c r="E154" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -4602,12 +4678,16 @@
       <c r="O154" s="12"/>
       <c r="P154" s="5"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A155" s="12"/>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
+      <c r="E155" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -4620,25 +4700,31 @@
       <c r="O155" s="12"/>
       <c r="P155" s="5"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="16"/>
+      <c r="E156" t="s">
+        <v>192</v>
+      </c>
       <c r="P156" s="5"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="16"/>
+      <c r="E157" t="s">
+        <v>142</v>
+      </c>
       <c r="P157" s="5"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="16"/>
       <c r="P158" s="5"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
         <v>91</v>
       </c>
       <c r="P159" s="5"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>46</v>
       </c>
@@ -4650,63 +4736,63 @@
       </c>
       <c r="P160" s="5"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>47</v>
       </c>
       <c r="P161" s="5"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>48</v>
       </c>
       <c r="P162" s="5"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>49</v>
       </c>
       <c r="P163" s="5"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>50</v>
       </c>
       <c r="P164" s="5"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="15"/>
       <c r="P165" s="5"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="15"/>
       <c r="P166" s="5"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="15"/>
       <c r="P167" s="5"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="15"/>
       <c r="P168" s="5"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>57</v>
       </c>
       <c r="P169" s="5"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>92</v>
       </c>
       <c r="P170" s="5"/>
     </row>
-    <row r="171" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="15"/>
       <c r="P171" s="5"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="15"/>
       <c r="B172" s="17" t="s">
         <v>51</v>
@@ -4725,7 +4811,7 @@
       <c r="N172" s="3"/>
       <c r="P172" s="5"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="15"/>
       <c r="B173" s="4" t="s">
         <v>52</v>
@@ -4733,7 +4819,7 @@
       <c r="N173" s="5"/>
       <c r="P173" s="5"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="15"/>
       <c r="B174" s="4" t="s">
         <v>53</v>
@@ -4741,7 +4827,7 @@
       <c r="N174" s="5"/>
       <c r="P174" s="5"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
       <c r="B175" s="4" t="s">
         <v>54</v>
@@ -4749,7 +4835,7 @@
       <c r="N175" s="5"/>
       <c r="P175" s="5"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
       <c r="B176" s="4" t="s">
         <v>55</v>
@@ -4757,7 +4843,7 @@
       <c r="N176" s="5"/>
       <c r="P176" s="5"/>
     </row>
-    <row r="177" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="15"/>
       <c r="B177" s="6" t="s">
         <v>56</v>
@@ -4776,13 +4862,13 @@
       <c r="N177" s="8"/>
       <c r="P177" s="5"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="15"/>
       <c r="P178" s="5"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -4800,9 +4886,9 @@
       <c r="O179" s="12"/>
       <c r="P179" s="5"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -4820,9 +4906,9 @@
       <c r="O180" s="12"/>
       <c r="P180" s="5"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -4840,7 +4926,7 @@
       <c r="O181" s="12"/>
       <c r="P181" s="5"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -4858,9 +4944,9 @@
       <c r="O182" s="12"/>
       <c r="P182" s="5"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -4878,9 +4964,9 @@
       <c r="O183" s="12"/>
       <c r="P183" s="5"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -4898,9 +4984,9 @@
       <c r="O184" s="12"/>
       <c r="P184" s="5"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -4918,7 +5004,7 @@
       <c r="O185" s="12"/>
       <c r="P185" s="5"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -4936,7 +5022,7 @@
       <c r="O186" s="12"/>
       <c r="P186" s="5"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -4954,22 +5040,22 @@
       <c r="O187" s="12"/>
       <c r="P187" s="5"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P188" s="5"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
         <v>58</v>
       </c>
       <c r="P189" s="5"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>93</v>
       </c>
       <c r="P190" s="5"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -4987,9 +5073,9 @@
       <c r="O191" s="12"/>
       <c r="P191" s="5"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -5007,9 +5093,9 @@
       <c r="O192" s="12"/>
       <c r="P192" s="5"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -5027,7 +5113,7 @@
       <c r="O193" s="12"/>
       <c r="P193" s="5"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -5045,9 +5131,9 @@
       <c r="O194" s="12"/>
       <c r="P194" s="5"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -5065,9 +5151,9 @@
       <c r="O195" s="12"/>
       <c r="P195" s="5"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -5085,9 +5171,9 @@
       <c r="O196" s="12"/>
       <c r="P196" s="5"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -5105,9 +5191,9 @@
       <c r="O197" s="12"/>
       <c r="P197" s="5"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -5125,16 +5211,16 @@
       <c r="O198" s="12"/>
       <c r="P198" s="5"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
       <c r="F199" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
@@ -5147,9 +5233,9 @@
       <c r="O199" s="12"/>
       <c r="P199" s="5"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -5167,9 +5253,9 @@
       <c r="O200" s="12"/>
       <c r="P200" s="5"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -5187,9 +5273,9 @@
       <c r="O201" s="12"/>
       <c r="P201" s="5"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -5207,7 +5293,7 @@
       <c r="O202" s="12"/>
       <c r="P202" s="5"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -5225,9 +5311,9 @@
       <c r="O203" s="12"/>
       <c r="P203" s="5"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -5245,9 +5331,9 @@
       <c r="O204" s="12"/>
       <c r="P204" s="5"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -5265,7 +5351,7 @@
       <c r="O205" s="12"/>
       <c r="P205" s="5"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -5283,7 +5369,7 @@
       <c r="O206" s="12"/>
       <c r="P206" s="5"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -5301,7 +5387,7 @@
       <c r="O207" s="12"/>
       <c r="P207" s="5"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -5319,7 +5405,7 @@
       <c r="O208" s="12"/>
       <c r="P208" s="5"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -5337,7 +5423,7 @@
       <c r="O209" s="12"/>
       <c r="P209" s="5"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -5355,7 +5441,7 @@
       <c r="O210" s="12"/>
       <c r="P210" s="5"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -5373,7 +5459,7 @@
       <c r="O211" s="12"/>
       <c r="P211" s="5"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -5391,7 +5477,7 @@
       <c r="O212" s="12"/>
       <c r="P212" s="5"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -5409,7 +5495,7 @@
       <c r="O213" s="12"/>
       <c r="P213" s="5"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -5427,7 +5513,7 @@
       <c r="O214" s="12"/>
       <c r="P214" s="5"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -5445,7 +5531,7 @@
       <c r="O215" s="12"/>
       <c r="P215" s="5"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -5463,7 +5549,7 @@
       <c r="O216" s="12"/>
       <c r="P216" s="5"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -5481,7 +5567,7 @@
       <c r="O217" s="12"/>
       <c r="P217" s="5"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -5499,62 +5585,62 @@
       <c r="O218" s="12"/>
       <c r="P218" s="5"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" s="15"/>
       <c r="P219" s="5"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" s="15"/>
       <c r="P220" s="5"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>94</v>
       </c>
       <c r="G222" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="P222" s="5"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>62</v>
       </c>
       <c r="P223" s="5"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>63</v>
       </c>
       <c r="P224" s="5"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>64</v>
       </c>
       <c r="P225" s="5"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>65</v>
       </c>
       <c r="P226" s="5"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>119</v>
       </c>
       <c r="P227" s="5"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="P228" s="5"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="P229" s="5"/>
     </row>
-    <row r="230" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -5598,16 +5684,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
@@ -5627,7 +5713,7 @@
       <c r="O1" s="39"/>
       <c r="P1" s="40"/>
     </row>
-    <row r="2" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -5645,7 +5731,7 @@
       <c r="O2" s="61"/>
       <c r="P2" s="62"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="63"/>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -5663,7 +5749,7 @@
       <c r="O3" s="64"/>
       <c r="P3" s="65"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5681,7 +5767,7 @@
       <c r="O4" s="67"/>
       <c r="P4" s="68"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -5699,7 +5785,7 @@
       <c r="O5" s="67"/>
       <c r="P5" s="68"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -5717,7 +5803,7 @@
       <c r="O6" s="67"/>
       <c r="P6" s="68"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -5735,7 +5821,7 @@
       <c r="O7" s="67"/>
       <c r="P7" s="68"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
@@ -5753,7 +5839,7 @@
       <c r="O8" s="67"/>
       <c r="P8" s="68"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -5771,7 +5857,7 @@
       <c r="O9" s="67"/>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -5789,7 +5875,7 @@
       <c r="O10" s="67"/>
       <c r="P10" s="68"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -5807,7 +5893,7 @@
       <c r="O11" s="67"/>
       <c r="P11" s="68"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -5825,7 +5911,7 @@
       <c r="O12" s="67"/>
       <c r="P12" s="68"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -5843,7 +5929,7 @@
       <c r="O13" s="67"/>
       <c r="P13" s="68"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -5861,7 +5947,7 @@
       <c r="O14" s="67"/>
       <c r="P14" s="68"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -5879,7 +5965,7 @@
       <c r="O15" s="67"/>
       <c r="P15" s="68"/>
     </row>
-    <row r="16" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
@@ -5897,28 +5983,28 @@
       <c r="O16" s="70"/>
       <c r="P16" s="71"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="P17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -5935,16 +6021,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
@@ -5962,7 +6048,7 @@
       <c r="M1" s="39"/>
       <c r="N1" s="40"/>
     </row>
-    <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -5978,7 +6064,7 @@
       <c r="M2" s="61"/>
       <c r="N2" s="62"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="63"/>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
@@ -5994,7 +6080,7 @@
       <c r="M3" s="64"/>
       <c r="N3" s="65"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -6010,7 +6096,7 @@
       <c r="M4" s="67"/>
       <c r="N4" s="68"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -6026,7 +6112,7 @@
       <c r="M5" s="67"/>
       <c r="N5" s="68"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -6042,7 +6128,7 @@
       <c r="M6" s="67"/>
       <c r="N6" s="68"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -6058,7 +6144,7 @@
       <c r="M7" s="67"/>
       <c r="N7" s="68"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
@@ -6074,7 +6160,7 @@
       <c r="M8" s="67"/>
       <c r="N8" s="68"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -6090,7 +6176,7 @@
       <c r="M9" s="67"/>
       <c r="N9" s="68"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -6106,7 +6192,7 @@
       <c r="M10" s="67"/>
       <c r="N10" s="68"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -6122,7 +6208,7 @@
       <c r="M11" s="67"/>
       <c r="N11" s="68"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -6138,7 +6224,7 @@
       <c r="M12" s="67"/>
       <c r="N12" s="68"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -6154,7 +6240,7 @@
       <c r="M13" s="67"/>
       <c r="N13" s="68"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -6170,7 +6256,7 @@
       <c r="M14" s="67"/>
       <c r="N14" s="68"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -6186,7 +6272,7 @@
       <c r="M15" s="67"/>
       <c r="N15" s="68"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="66"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -6202,7 +6288,7 @@
       <c r="M16" s="67"/>
       <c r="N16" s="68"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="66"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -6218,7 +6304,7 @@
       <c r="M17" s="67"/>
       <c r="N17" s="68"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="66"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -6234,7 +6320,7 @@
       <c r="M18" s="67"/>
       <c r="N18" s="68"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="66"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -6250,7 +6336,7 @@
       <c r="M19" s="67"/>
       <c r="N19" s="68"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -6266,7 +6352,7 @@
       <c r="M20" s="67"/>
       <c r="N20" s="68"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="66"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -6282,7 +6368,7 @@
       <c r="M21" s="67"/>
       <c r="N21" s="68"/>
     </row>
-    <row r="22" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
@@ -6298,48 +6384,48 @@
       <c r="M22" s="70"/>
       <c r="N22" s="71"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="N23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6356,20 +6442,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="25.59765625" customWidth="1"/>
-    <col min="6" max="9" width="36.8984375" customWidth="1"/>
+    <col min="1" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="9" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="94" t="s">
         <v>99</v>
       </c>
@@ -6384,7 +6470,7 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>101</v>
       </c>
@@ -6401,7 +6487,7 @@
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
     </row>
-    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>104</v>
       </c>
@@ -6426,7 +6512,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="72" t="s">
         <v>108</v>
       </c>
@@ -6441,7 +6527,7 @@
       <c r="H4" s="75"/>
       <c r="I4" s="75"/>
     </row>
-    <row r="5" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="76"/>
       <c r="B5" s="77"/>
       <c r="C5" s="77"/>
@@ -6454,7 +6540,7 @@
       <c r="H5" s="86"/>
       <c r="I5" s="87"/>
     </row>
-    <row r="6" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="79"/>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -6465,7 +6551,7 @@
       <c r="H6" s="89"/>
       <c r="I6" s="90"/>
     </row>
-    <row r="7" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" s="80"/>
       <c r="C7" s="80"/>
@@ -6476,7 +6562,7 @@
       <c r="H7" s="89"/>
       <c r="I7" s="90"/>
     </row>
-    <row r="8" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="79"/>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
@@ -6487,7 +6573,7 @@
       <c r="H8" s="89"/>
       <c r="I8" s="90"/>
     </row>
-    <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
@@ -6498,7 +6584,7 @@
       <c r="H9" s="89"/>
       <c r="I9" s="90"/>
     </row>
-    <row r="10" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" s="80"/>
       <c r="C10" s="80"/>
@@ -6509,7 +6595,7 @@
       <c r="H10" s="89"/>
       <c r="I10" s="90"/>
     </row>
-    <row r="11" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79"/>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -6520,7 +6606,7 @@
       <c r="H11" s="89"/>
       <c r="I11" s="90"/>
     </row>
-    <row r="12" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="80"/>
       <c r="C12" s="80"/>
@@ -6531,7 +6617,7 @@
       <c r="H12" s="89"/>
       <c r="I12" s="90"/>
     </row>
-    <row r="13" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="79"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -6542,7 +6628,7 @@
       <c r="H13" s="89"/>
       <c r="I13" s="90"/>
     </row>
-    <row r="14" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -6553,7 +6639,7 @@
       <c r="H14" s="89"/>
       <c r="I14" s="90"/>
     </row>
-    <row r="15" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -6564,7 +6650,7 @@
       <c r="H15" s="89"/>
       <c r="I15" s="90"/>
     </row>
-    <row r="16" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
@@ -6575,7 +6661,7 @@
       <c r="H16" s="92"/>
       <c r="I16" s="93"/>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>78</v>
       </c>
@@ -6590,7 +6676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>113</v>
       </c>
@@ -6603,7 +6689,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>114</v>
       </c>
@@ -6616,7 +6702,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>115</v>
       </c>
@@ -6629,7 +6715,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" ht="33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -6640,10 +6726,10 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
     </row>
-    <row r="23" spans="1:9" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
     </row>
   </sheetData>

--- a/5월/C# 프로그래밍_ 박다수.xlsx
+++ b/5월/C# 프로그래밍_ 박다수.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="C# 프로그래밍" sheetId="2" r:id="rId1"/>
@@ -2568,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6445,7 +6445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:I16"/>
     </sheetView>
   </sheetViews>
